--- a/qa.xlsx
+++ b/qa.xlsx
@@ -1,43 +1,730 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView windowHeight="15200"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+  <si>
+    <t>question</t>
+  </si>
+  <si>
+    <t>answer</t>
+  </si>
+  <si>
+    <t>如何提升一个企业的数据中心成熟度水平</t>
+  </si>
+  <si>
+    <t>提升企业数据中心成熟度水平是一个系统性工程，需要从战略规划、组织结构、技术能力、流程管理、风险控制、人员培养等多个方面进行综合考量和改进。以下是一些关键步骤和方法：
+1. **明确战略目标**：首先，需要根据企业的业务目标和长远规划，明确数据中心的发展愿景、使命和战略目标。
+2. **评估当前成熟度**：通过自评估或第三方评估，了解数据中心当前的服务能力成熟度水平，识别存在的短板和潜在风险。
+3. **建立能力框架**：依据数据中心服务能力成熟度模型（如文中提到的模型），构建或优化数据中心的能力框架，确保涵盖战略发展、运营保障和组织治理等关键领域。
+4. **制定改进计划**：根据评估结果，制定具体的改进计划和实施路线图，包括时间表、责任分配、所需资源和预期成果。
+5. **强化流程管理**：优化和标准化数据中心的作业流程，确保流程的高效性和适应性，例如通过引入ITIL（信息技术基础设施库）等最佳实践。
+6. **技术升级与创新**：投资于新技术和工具，提升数据中心的技术能力，包括虚拟化、云计算、自动化和人工智能等。
+7. **人才培养与技能提升**：加强人员培训和职业发展规划，提升员工的专业技能和管理能力，确保团队能够支持数据中心的成熟度提升。
+8. **风险管理**：建立健全的风险管理机制，包括风险识别、评估、监控和缓解措施，以降低潜在风险对数据中心运营的影响。
+9. **质量保证**：实施严格的质量管理措施，包括服务水平管理、性能监控、安全保障等，确保服务质量满足或超过业务需求。
+10. **持续监控与评估**：建立持续的监控和评估机制，定期检查数据中心服务能力的发展情况，及时调整改进计划。
+11. **组织文化建设**：培养积极向上的组织文化，鼓励创新思维和持续改进，确保全体员工对提升数据中心成熟度的目标有共识。
+12. **合规性与标准化**：确保数据中心的运营和管理活动遵守相关法律法规和行业标准，通过标准化提高效率和可靠性。
+通过上述步骤，企业可以逐步提升数据中心的服务能力成熟度，从而更好地支持企业的业务发展和数字化转型。</t>
+  </si>
+  <si>
+    <t>开关电源空载时电压正常,带载时电压就下降是什么原因?</t>
+  </si>
+  <si>
+    <t>开关电源空载时电压正常，带载时电压下降的情况通常可能是由以下几种原因引起的：
+1. **负载过重**：如果电源的输出功率不足以支持其标称负载，当接入负载时，电源输出电压会因为电流的增加而下降。
+2. **电源线路问题**：电源内部的线路或焊接点可能存在接触不良，负载启动时产生的电流可能导致接触点进一步恶化，从而引起电压下降。
+3. **电源设计问题**：电源设计可能存在缺陷，比如变压器或滤波电容的容量不足，无法在带载时提供稳定的电压。
+4. **元件老化或损坏**：电源内部的某些元件（如电容、二极管、MOSFET等）可能因为老化或损坏，导致其在负载条件下无法正常工作，引起电压下降。
+5. **热效应**：在带载工作时，电源内部元件的功耗增加，可能会导致元件温度升高，进而影响其性能，特别是在高温下工作时更为明显。
+6. **反馈控制问题**：如果电源的反馈控制系统设计不当或损坏，可能导致无法准确调节输出电压，导致带载时电压不稳定。
+7. **外部干扰**：电源可能受到外部电磁干扰，当负载接入时，这种干扰可能会导致电源输出电压波动。
+解决这类问题通常需要对电源进行详细的检查和测试，包括测量空载和带载时的输出电压、检查电源内部的元件和线路、评估电源的热性能等。如果问题较为复杂，可能需要专业的电源维修或更换。</t>
+  </si>
+  <si>
+    <t>我要更改一个服务器IP地址，是否属于标准变更</t>
+  </si>
+  <si>
+    <t>更改服务器IP地址属于数据中心的维护和管理活动，可以视为一种变更管理的范畴。在文中提到了变更管理的相关要求，具体如下：
+1. **变更策略制定**：应明确变更管理的范围，制定变更策略，包括变更的分类分级标准、变更前的测试要求等。
+2. **变更受理与评估**：所有变更都应被记录，并且应接收变更申请，评估变更的影响、风险和所需资源。
+3. **变更方案制定**：应制定变更实施方案和实施计划，同时制定变更回退方案或补救措施。
+4. **变更授权**：所有变更均应被授权。
+5. **变更协调与执行**：应对变更进行调度和排程，明确相关的部署和操作任务，全程推进、协调变更的实施，并对变更实施结果进行回顾及验证。
+6. **变更回顾与关闭**：应回顾变更实施的过程和结果，并有明确的变更关闭规则。
+因此，更改服务器IP地址这一活动应当遵循上述变更管理的流程，确保变更的合理性、安全性，并对变更结果进行评估和记录。如果数据中心已有明确的变更管理流程，那么更改IP地址的活动应当按照该流程进行操作。</t>
+  </si>
+  <si>
+    <t>我可以在办公位发起变更吗</t>
+  </si>
+  <si>
+    <t>根据上文提到的变更管理相关流程和要求，变更不是由个人随意在办公位发起的。变更管理遵循一系列标准化的流程，主要包括以下几个步骤：
+1. **变更策略制定**：应明确变更管理的范围，并制定相应的变更策略。这包括变更的分类分级标准、变更前测试要求以及与相关方的沟通要求等。
+2. **变更受理与评估**：所有变更都应被记录并且经过评估，以确定变更的影响、风险和所需资源。
+3. **变更方案制定**：制定变更实施方案和实施计划，同时制定变更回退方案或补救措施。
+4. **变更授权**：所有变更都需要得到授权。这意味着在变更实施前，需要得到相应管理层或变更管理委员会的批准。
+5. **变更协调与执行**：应协调变更实施，并监督变更执行的进展，包括变更的调度、排程、实施以及实施结果的验证。
+6. **变更回顾与关闭**：变更实施后，需要进行回顾，评估变更的效果，并根据结果进行必要的调整，最后关闭变更。
+因此，如果在办公位需要发起变更，首先应该遵循公司制定的变更管理流程，包括提出变更请求、评估变更的必要性和影响、获得授权和批准，然后按照既定流程执行变更。变更不应随意进行，而应是经过周密计划和严格控制的。</t>
+  </si>
+  <si>
+    <t>事件处置过程中如何做好沟通协调？</t>
+  </si>
+  <si>
+    <t>事件处置过程中做好沟通协调主要可以从以下几个方面进行：
+1. **定义沟通策略**：在事件管理计划中明确沟通的范围、对象、方式和频率。
+2. **明确沟通对象**：确定需要接收事件信息和参与决策的相关方，如内部团队成员、管理层、客户及其他利益相关者。
+3. **使用适当的沟通渠道**：根据事件的性质和紧急程度选择合适的沟通渠道，如电话、电子邮件、即时通讯工具等。
+4. **实时更新信息**：确保所有相关方都能获得事件的最新进展和变化，保持信息的透明度。
+5. **建立报告机制**：制定事件报告流程，包括事件的关键信息、影响、当前状态和预期的处置措施。
+6. **培训团队成员**：确保所有参与事件处置的团队成员了解沟通流程和策略，能够在必要时有效沟通。
+7. **制定升级流程**：明确事件升级的条件和流程，确保在必要时及时沟通给更高层级的管理人员或外部机构。
+8. **记录沟通内容**：记录所有重要的沟通内容和决策，以备后续分析和审计。
+9. **考虑文化和语言差异**：在跨文化或多语言环境中，确保沟通信息的准确性和文化敏感性。
+10. **评估沟通效果**：定期评估沟通的效果，收集反馈，不断优化沟通策略和流程。
+通过这些措施，可以确保事件处置过程中的沟通协调有效、及时，有助于事件的快速、妥善解决。</t>
+  </si>
+  <si>
+    <t>itil中怎么定义突发故障（Fault）的？</t>
+  </si>
+  <si>
+    <t>ITIL（IT基础设施库）中对突发故障（Fault）的定义是：
+突发故障是指在IT基础设施或服务中出现的一个异常或意外事件，导致或可能即将导致IT服务中断或性能下降。这种故障可以是硬件故障、软件错误、通信中断或其他任何可能影响服务可用性或质量的问题。
+以下是一些关键点，概述了ITIL中对突发故障的理解：
+1. **识别**：突发故障通常由用户、监控系统或技术支持人员识别。
+2. **影响**：故障可能导致服务中断或性能降低，影响用户使用服务。
+3. **紧急性**：根据故障对服务的影响程度，需要确定其紧急性和优先级。
+4. **分类**：故障可以根据类型（如硬件、软件、网络等）进行分类。
+5. **记录**：在IT服务管理中，所有的故障都应该被记录和管理。
+6. **响应和恢复**：服务支持团队应迅速响应故障，采取措施以恢复服务。
+7. **根本原因分析**：解决故障后，应进行根本原因分析，以防止未来再次发生。
+8. **知识管理**：将故障处理经验记录在知识库中，以便未来参考。
+9. **持续改进**：通过对故障的分析和处理，不断改进IT服务管理流程。
+在IT服务管理中，对突发故障的有效管理是确保服务质量和用户满意度的关键部分。</t>
+  </si>
+  <si>
+    <t>所有访客在数据中心时都必须陪同吗</t>
+  </si>
+  <si>
+    <t>根据您提供的文档内容，没有直接提及访客在数据中心的陪同要求。但文档中提到了“信息安全管理措施”，这些措施可能包括访问控制措施，这可能涉及到访客的控制。在实际操作中，数据中心可能会根据其信息安全管理措施和政策来决定是否要求访客在数据中心时必须有人员陪同，以确保数据中心的安全和保密性。
+如果需要更具体的措施或者政策，建议查阅数据中心的《信息安全管理措施制定》部分，或者直接咨询数据中心的管理部门获取准确的访客访问政策。</t>
+  </si>
+  <si>
+    <t>给我的员工提供下关于事件和故障的考题</t>
+  </si>
+  <si>
+    <t>根据上述文档内容，特别是与事件管理（Incident Management）和问题管理（Problem Management）相关部分，我们可以设计一些考题来测试员工对这些概念的理解和应用能力。以下是一些可能的考题：
+1. **选择题**：
+   - 事件管理的主要目标是什么？
+     A. 预防事件的发生
+     B. 在最短时间内恢复正常服务运营
+     C. 增加服务的可用性
+     D. 改进服务的容量规划
+2. **判断题**：
+   - 事件管理不包括对事件的记录和分类。（正确/错误）
+3. **简答题**：
+   - 描述事件管理的一般流程，并解释每个步骤的目的。
+4. **案例分析题**：
+   - 假设你是一名数据中心的运营人员，突然收到一个事件报告，一个关键应用程序无法访问。请列出你会采取的步骤来处理这个事件，并解释为什么这些步骤是必要的。
+5. **多选题**：
+   - 在问题管理中，以下哪些活动是必要的？
+     A. 问题识别与记录
+     B. 事件升级处理
+     C. 问题分析与根本原因查找
+     D. 问题解决与临时措施制定
+6. **计算题**：
+   - 如果数据中心设定的事件响应时间目标（RTO）是15分钟，事件恢复时间目标（RPO）是30分钟，一次事件从发生到响应用了20分钟，从响应到恢复用了25分钟，请问是否符合RTO和RPO的要求？
+7. **策略制定题**：
+   - 设计一套问题管理策略，包括问题识别、分类、分析、解决和回顾的流程，并解释如何确保策略的有效性。
+8. **流程图绘制题**：
+   - 绘制一个事件管理流程图，展示从事件接收到事件关闭的整个流程。
+9. **排序题**：
+   - 将以下事件管理活动按发生的顺序排列：记录事件、事件升级、事件解决、事件回顾、事件关闭。
+10. **论述题**：
+    - 论述为什么持续改进（Continuous Improvement）对于事件和问题管理至关重要，并给出实际工作中可能的改进措施。
+这些考题覆盖了从理论知识到实际应用，再到策略制定等多个方面，旨在全面考察员工对事件和问题管理的理解。</t>
+  </si>
+  <si>
+    <t>我们单位数据中心今年2月份出现过2次事件：一次是外部推销人员没有登记就进入了数据中心，一次是停车场电动车发生了自燃，这两次事件说明了什么问题？对数据中心成熟度评分有什么具体影响？</t>
+  </si>
+  <si>
+    <t>这两次事件可能表明数据中心在安全管理方面存在一定的漏洞和风险点。具体来说：
+1. **外部推销人员未登记进入数据中心**：这反映出数据中心在访问控制和访客管理方面可能存在缺陷。根据上述文档中提到的“信息安全管理”和“安健环管理”能力项，数据中心需要制定和实施严格的访问控制措施和物理安全措施，确保所有进出人员都经过适当的登记和验证。
+2. **停车场电动车自燃事件**：这起事件可能指向了数据中心在“安健环管理”方面的风险评估和预防措施不足。数据中心需要对可能的安全隐患进行全面的识别和评估，并制定相应的安全管理措施来预防此类事件的发生。
+这些事件对数据中心成熟度评分的具体影响可能包括：
+- **降低安全管理成熟度评分**：由于安全事件的发生，表明数据中心在安全方面的控制措施可能不够充分或执行不到位，这将直接影响到安全相关的成熟度评分。
+- **影响组织治理能力域的评价**：安全事件可能导致对“组织治理”能力域中“职能管理”、“关系管理”和“合规管理”等能力项的评价降低，因为这些能力项涉及到风险管理和相关方的安全管理。
+- **可能影响整体服务能力成熟度**：由于安全事件可能对数据中心的正常运营产生负面影响，这可能会间接影响到数据中心服务能力的整体成熟度评价。
+为了提高数据中心的成熟度评分，建议数据中心管理层根据上述文档中提到的管理要求，对现有的安全管理制度进行全面的审查和加强，并制定具体的改进措施来预防类似事件的再次发生。同时，应定期进行风险评估和安全培训，提高员工的安全意识和应急处理能力。</t>
+  </si>
+  <si>
+    <t>在事件管理过程中，沟通协调是一项关键活动，确保事件得到及时和有效的解决。以下是事件处置过程中进行沟通协调的一些步骤和建议：
+1. **明确沟通目的和目标**：在事件响应开始时，确定沟通的目的和期望结果，这有助于指导整个沟通过程。
+2. **建立沟通计划**：根据事件的性质和影响范围，制定沟通计划，包括沟通的对象、频率、方式和内容。
+3. **识别关键利益相关者**：确定所有可能受事件影响的利益相关者，并了解他们的信息需求和期望。
+4. **使用适当的沟通渠道**：根据沟通对象和信息的性质，选择最合适的沟通渠道，如电子邮件、电话、会议或内部通信系统。
+5. **保持信息的准确性和及时性**：确保沟通的信息准确无误，并在获取新信息后及时更新。
+6. **促进跨部门协作**：在多部门或团队参与事件处理时，促进信息共享和协作，确保各团队之间的工作协调一致。
+7. **定期更新事件状态**：通过定期的状态报告，让所有相关方了解事件处理的进展和任何变化。
+8. **处理反馈和问题**：积极响应利益相关者的反馈和问题，确保他们的需求和关切得到妥善处理。
+9. **记录沟通内容**：记录所有的沟通活动，包括日期、时间、参与者、讨论内容和决策结果，以备后续审查和跟踪。
+10. **评估沟通效果**：事件结束后，评估沟通的效果，识别改进的领域，并在必要时调整沟通计划。
+11. **学习和改进**：从每次事件的沟通协调中学习，不断改进沟通策略和流程，以提高未来事件响应的效率。
+在文档中，事件管理的度量建议体现事件响应的及时性和事件处理的时效性，这可以通过监控和评估沟通协调的效果来实现。</t>
+  </si>
+  <si>
+    <t>如何确保每位访客都有一名或多名授权的数据中心员工陪同。</t>
+  </si>
+  <si>
+    <t>确保每位访客都有一名或多名授权的数据中心员工陪同，可以参考以下步骤：
+1. **访问政策制定**：首先，数据中心应制定明确的访问控制政策，规定所有访客在数据中心内的活动必须有授权员工的陪同。
+2. **员工授权**：明确哪些员工有资格陪同访客，并确保这些员工了解其责任和数据中心的安全规定。
+3. **访客登记**：建立访客登记制度，记录每位访客的详细信息和访问目的，以及他们将被哪些授权员工陪同。
+4. **访问培训**：对授权陪同的员工进行培训，确保他们了解如何安全地引导访客，以及在紧急情况下的应对措施。
+5. **监控实施**：通过视频监控和其他监控手段，确保访客在数据中心内的活动得到实时监督。
+6. **物理访问控制**：使用门禁系统等物理访问控制措施，确保只有授权人员才能进入敏感区域。
+7. **紧急响应计划**：制定并实施紧急响应计划，以便在发生安全事件时迅速采取行动。
+8. **定期审计**：定期进行安全审计，检查访问控制政策的执行情况，并根据需要进行调整。
+9. **员工意识**：提高员工对访客政策的认识，确保他们理解政策的重要性，并在日常工作中遵守。
+10. **违规处理**：对于违反访客陪同政策的行为，应有明确的处理流程和惩罚措施。
+通过上述措施，数据中心可以确保访客在数据中心内的安全，并保护数据中心的资产和信息安全。</t>
+  </si>
+  <si>
+    <t>如何确立明确的标准和方法来识别和记录事件。</t>
+  </si>
+  <si>
+    <t>在上文中，对于如何确立明确的标准和方法来识别和记录事件，可以参考以下部分：
+1. **事件记录**：“所有事件均应被记录，包括但不限于接收的事件和主动发现的事件”。这一要求说明事件记录应全面，无论是通过接收还是通过主动监测发现的事件，都需进行详细记录。
+2. **事件分类分级**：“应对事件进行分类分级”。具体来说，应有明确的事件分类分级定义，这包括但不限于按照事件的属性来划分事件的类别和确定优先级。
+3. **级别**：“b）应按事件的属性划分事件分类和优先级；c）应结合 IT 服务连续性管理建立重大事件应急管理决策和处置机制，明确应急管理要求”。这段描述指出事件应根据其特性被赋予相应的级别，并在必要时建立应急管理机制。
+4. **事件升级**：“必要时，应执行事件升级。a）应定义事件升级规则；b）应根据事件升级规则，转派后线支持人员进行职能升级处理，或加强事件处理力度进行结构升级处理”。这里提到在事件需要时，应有明确的升级规则来指导如何处理事件的升级。
+5. **事件解决与恢复**：“应快速解决影响数据中心服务的事件。a）应对事件进行分析，尽快解决；b）重大事件应按照应急管理要求协调资源及时处置；c）事件涉及人员应能访问、匹配并关联相关信息，包括相关服务请求、已知错误、问题解决方案和资产与配置管理数据库等；d）应监督、监控事件处理进展，并根据需要协调解决”。
+6. **事件回顾与关闭**：“应回顾和关闭事件。a）应有明确的事件关闭规则；b）应在关闭事件时对事件记录进行更新，确认事件的最终分类和分级，受影响的服务，以及导致事件发生的配置项等”。
+通过上述引用的原文信息，可以确立一套明确的标准和方法来识别、记录、分类、处理、升级、解决和关闭事件。这包括定义事件的分类和级别，确立事件记录和升级的规则，以及确保事件的及时解决和回顾。</t>
+  </si>
+  <si>
+    <t>突发事件（Incident）的定义来自哪里？</t>
+  </si>
+  <si>
+    <t>在提供的文本中，关于“突发事件”（Incident）没有明确的定义描述。不过，文本中提到了“事件管理”能力项，它包含了对事件的分类分级、事件升级、事件解决与恢复、事件回顾与关闭等关键活动。事件管理的总体目标是在最短时间内恢复正常服务运营，将对业务运营的负面影响降至最低，确保能够保持服务质量与可用性。尽管没有直接定义“突发事件”，但从事件管理的描述可以推断，突发事件可能指的是那些影响数据中心正常服务运营，需要通过事件管理流程迅速响应和处理的不利情况或意外事件。</t>
+  </si>
+  <si>
+    <t>数据中心里什么是事件，包括事件的特征和可能的类型。</t>
+  </si>
+  <si>
+    <t>在数据中心管理的背景下，“事件”是指在数据中心的运营过程中发生的，可能对服务质量、可用性或数据中心的其他方面产生影响的各类突发性问题或变化。事件的特征通常包括但不限于以下几点：
+1. **突发性**：事件发生往往具有不可预测性，它们突然出现，需要立即响应。
+2. **影响性**：事件可能会对数据中心的运营产生不同程度的影响，这包括对服务的可用性、性能或其他关键指标的影响。
+3. **多样性**：事件可以是技术故障、安全威胁、人为错误等多种类型，每种类型可能需要不同的处理方法。
+4. **紧急程度**：事件有不同的紧急程度，需要根据严重性快速评估并采取相应措施。
+5. **记录性**：所有事件都应该被记录，包括发生的时间和情况、影响的范围、处理的过程和结果等，以便于事后分析和改进。
+在文档中提到的事件可能包括但不限于以下类型：
+- **技术故障**：如硬件故障、软件错误等。
+- **安全事件**：如网络攻击、数据泄露等。
+- **操作失误**：由人为操作不当引起的问题。
+- **自然灾害**：如洪水、地震等对数据中心造成的影响。
+- **服务中断**：由于各种原因导致的服务不可用。
+数据中心需要建立有效的事件管理机制，包括事件的识别、分类、响应、处理、记录和回顾关闭等流程，以确保能够快速恢复服务，减少事件对业务的影响。</t>
+  </si>
+  <si>
+    <t>卓越的数据中心管理者需要什么样的品质？</t>
+  </si>
+  <si>
+    <t>卓越的数据中心管理者通常具备以下品质：
+1. **战略思维**：能够制定并执行与数据中心长期目标一致的战略规划。
+2. **领导能力**：能够激励和引导团队，确保团队成员朝着共同的目标努力。
+3. **技术专长**：对数据中心的技术和操作有深入理解，能够应对技术挑战和变革。
+4. **风险管理**：能够识别、评估和管理数据中心运营中的各种风险。
+5. **合规意识**：确保数据中心的运营遵守相关法律法规和标准。
+6. **持续改进**：致力于不断提升数据中心的服务能力，追求卓越。
+7. **沟通能力**：能够与团队成员、合作伙伴和客户进行有效沟通。
+8. **资源管理**：合理分配和管理数据中心的人力、财力和物力资源。
+9. **创新能力**：鼓励创新思维，推动新技术和方法的应用，以提高数据中心的服务质量和效率。
+10. **危机应对**：在面对突发事件或危机时，能够迅速做出决策并采取有效措施。
+这些品质有助于数据中心管理者在成熟度模型中达到卓越级（五级），从而推动数据中心成为行业标杆，驱动业务发展。</t>
+  </si>
+  <si>
+    <t>如何评价信息安全管理水平</t>
+  </si>
+  <si>
+    <t>信息安全管理水平的评价是一个多维度的过程，涉及到对信息安全管理各个方面的评估。以下是评价信息安全管理水平的一般方法：
+1. **策略与要求的识别**：首先需要评估是否制定了全面的信息安全管理策略，并且这些策略是否符合组织的风险管理需求和合规要求。
+2. **措施的制定与实施**：检查是否根据识别的需求制定了有效的信息安全管理措施，并且这些措施是否得到了有效的执行。
+3. **监控与回顾**：信息安全管理措施的执行情况需要被监控，并且定期进行回顾，以确保措施的有效性和及时更新。
+4. **风险评估**：评价组织是否定期进行信息安全风险评估，并且这些评估是否全面和准确。
+5. **合规性**：检查信息安全管理措施是否符合相关的法律法规和行业标准。
+6. **事件响应**：评价组织应对信息安全事件的能力，包括事件的识别、响应、处理和恢复。
+7. **员工意识与培训**：员工对于信息安全管理的意识和参与度，以及他们是否接受了适当的培训。
+8. **技术防护措施**：评价组织是否实施了有效的技术防护措施，如防火墙、入侵检测系统、加密技术和访问控制等。
+9. **数据保护**：评估数据的保密性、完整性和可用性保护措施。
+10. **审计与测试**：定期进行安全审计和渗透测试，以发现潜在的安全问题。
+11. **业务连续性计划**：评价组织是否有应对重大信息安全事件的业务连续性计划和灾难恢复计划。
+12. **改进措施**：评估组织对于安全问题的反应速度和改进措施的有效性。
+13. **度量指标**：设计并实施度量指标来体现信息安全管理的效果，如安全事件的数量、影响范围、响应时间等。
+通过上述方面的综合评估，可以对一个组织的信息安全管理水平做出较为全面的评价。具体的评价方法和标准可能会根据不同组织的特点和需求有所不同。</t>
+  </si>
+  <si>
+    <t>事件管理流程应该怎么设定？</t>
+  </si>
+  <si>
+    <t>事件管理流程是数据中心运营中的重要组成部分，其目的是确保在发生事件时能够迅速响应并恢复正常服务运营，将对业务运营的负面影响降至最低。根据文档中提供的事件管理的描述，事件管理流程应该包括以下几个关键步骤：
+1. **事件记录**：所有事件均应被记录，包括但不限于接收的事件和主动发现的事件。
+2. **事件分类分级**：应对事件进行分类分级，应有明确的事件分类分级定义。
+3. **事件升级**：必要时，应执行事件升级。应定义事件升级规则，并根据事件升级规则进行处理。
+4. **事件解决与恢复**：应快速解决影响数据中心服务的事件。对事件进行分析，尽快解决，并监督、监控事件处理进展。
+5. **事件回顾与关闭**：应回顾和关闭事件。应有明确的事件关闭规则，并在关闭事件时对事件记录进行更新。
+6. **重大事件应急管理**：结合IT服务连续性管理建立重大事件应急管理决策和处置机制，明确应急管理要求。
+7. **事件响应的及时性**和**事件处理的时效性**：应设计并实施度量，以体现事件响应和处理的效率。
+8. **重大事件响应及处理的时效性**：对于重大事件，应特别关注其响应和处理的时间效率。
+9. **事件涉及人员的信息访问**：事件涉及人员应能访问、匹配并关联相关信息，如服务请求、已知错误、问题解决方案和资产与配置管理数据库等。
+10. **监督、监控事件处理进展**：根据需要协调解决事件处理中的问题。
+这些步骤构成了一个完整的事件管理流程，旨在通过结构化和系统化的方法来提高数据中心对事件的响应能力和处理效率。</t>
+  </si>
+  <si>
+    <t>在事件处置过程中，做好沟通协调对于提高事件处理效率、降低业务影响至关重要。以下是一些关键活动和要求，以及相应的度量方法，以确保有效沟通协调：
+1. **事件响应及时性**：事件发生时，应迅速响应并通知相关责任人和团队。这要求建立一个快速响应机制，确保事件能够在第一时间得到关注。
+2. **信息共享**：确保所有参与事件处理的人员能够访问相关信息，包括事件的性质、影响范围、处理进展等。这可能需要建立一个共享的信息平台或使用实时通讯工具。
+3. **明确责任分工**：在事件处理过程中，明确每个团队或个人的职责和任务，避免职责重叠或遗漏。
+4. **升级规则**：定义事件升级规则，确保在事件无法在当前层面得到解决时，能够及时升级到更高级别的团队或管理层。
+5. **协调资源**：根据事件的严重性和复杂性，协调必要的人力、技术和其他资源，以支持事件的快速解决。
+6. **沟通机制**：建立有效的沟通机制，包括定期的会议、状态更新报告、紧急沟通渠道等。
+7. **用户和利益相关者沟通**：保持与用户和利益相关者的沟通，及时更新事件状态，管理他们的期望，并减少由于信息不对称导致的不满。
+8. **记录和文档化**：记录所有沟通和协调活动，确保事件处理过程的透明度和可追溯性。
+9. **度量和监控**：设计并实施度量方法，以监控沟通协调的有效性，例如事件处理时间、用户满意度调查、内部团队反馈等。
+10. **回顾和改进**：事件处理结束后，回顾沟通协调过程，识别改进点，并更新沟通协调流程和策略。
+通过上述活动和要求，可以确保事件处置过程中的沟通协调是有效的，从而提高整体的事件管理能力。</t>
+  </si>
+  <si>
+    <t>数据中心服务能力成熟度的得分是怎样计算的？</t>
+  </si>
+  <si>
+    <t>数据中心服务能力成熟度的得分是通过一套详细的评价体系来计算的。这个评价体系包括以下几个步骤：
+1. **能力项成熟度评价**：首先，对每一个能力项（capability item）进行成熟度评价。能力项是数据中心服务能力的基本单元。每个能力项的成熟度通过7个能力要素（如人员、过程、技术、资源、政策、领导、文化）来评价，每个要素根据其表现被赋予一个得分。
+2. **评价要素得分**：每个能力要素基于8个评价要素（如管理人充分性、执行人充分性、过程充分性等）进行评价。每个评价要素根据其表现被赋予一个得分，得分分为低、中、高三档。
+3. **评价指标取值**：根据评价要素的得分，对照评价指标取值标准表，确定每个评价要素的具体数值。
+4. **评价要素加权平均**：使用评价要素取值计算方法（如表3所示），将每个能力要素的评价指标得分进行加权平均，得到该要素的分值。
+5. **能力项成熟度指标值**：将所有评价要素的分值进行加权平均，计算出每个能力项的成熟度指标值。
+6. **能力域成熟度**：将同一能力域内所有能力项的成熟度指标值进行加权平均，得出该能力域的成熟度。
+7. **数据中心服务能力成熟度**：最后，将所有能力域的成熟度指标值进行加权平均，得到数据中心服务能力成熟度的最终得分。
+8. **成熟度级别确定**：根据数据中心服务能力成熟度得分，对照成熟度分级规则（如表5所示），确定数据中心服务能力的成熟度级别。
+这个过程确保了数据中心服务能力成熟度的评估既全面又具有可量化的精确性。</t>
+  </si>
+  <si>
+    <t>ITIL（Information Technology Infrastructure Library）是一种广泛认可的信息技术服务管理（ITSM）框架，它提供了一套帮助组织设计、实施、管理和优化IT服务的流程和最佳实践。在ITIL中，"故障"（Fault）的定义通常是指导致服务中断或服务质量下降的事件。更具体来说，故障可能包括：
+1. **硬件故障**：如服务器、网络设备或其他关键硬件组件的故障。
+2. **软件故障**：软件应用程序或系统由于错误或问题无法正常工作。
+3. **人为错误**：用户或操作员的操作错误导致服务中断或性能下降。
+4. **环境问题**：如数据中心的电力中断、冷却系统故障等。
+在ITIL的事故管理（Incident Management）流程中，故障的识别和记录是关键步骤。事故管理流程旨在快速恢复服务的正常运作，以最小化对业务运营的影响。故障管理（Fault Management）则是一个更广泛的流程，它包括事故管理，并涉及诊断和修复故障的根本原因，以防止未来的发生。
+故障管理的关键活动包括：
+- **故障识别**：通过监控和员工/用户报告来识别故障。
+- **故障记录**：在事故管理系统中记录故障的详细信息。
+- **故障分类和优先级判定**：根据故障的影响和紧急程度对故障进行分类和确定优先级。
+- **故障诊断**：确定故障的原因，并尝试快速解决问题或提供临时解决方案。
+- **故障排除**：修复故障并恢复服务。
+- **故障恢复**：确保服务完全恢复并监控以确保问题不会再次发生。
+- **故障关闭**：记录故障管理过程的所有细节，并关闭事故记录。
+ITIL强调快速响应和恢复服务，同时通过有效的故障管理流程，提高服务的可靠性和用户满意度。</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -46,93 +733,329 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -415,89 +1338,193 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="23.5576923076923" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>question</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>answer</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>您好！看起来您输入的“123”可能不是一个完整的问题。如果您需要帮助或者想要询问一些具体的问题，请提供更多的信息或者详细描述您的问题，这样我才能更好地帮助您。</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>555</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>您好！看起来您输入的“555”可能不是一个完整的问题。如果您需要帮助或者有任何问题，请随时告诉我具体的情况或疑问，我会尽力为您提供帮助和解答。如果“555”是某种代码或特定含义，请提供更多的上下文信息，以便我能够更好地理解和回应。</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>如何提升学习效率</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>提升学习效率是一个多方面的过程，可以从以下几个角度来考虑：
-1. **明确学习目标**：确定你的学习目的和目标，这有助于你集中注意力和保持动力。
-2. **合理安排时间**：制定学习计划，合理分配学习时间和休息时间，避免过度疲劳。
-3. **优化学习环境**：确保你的学习环境安静、整洁，减少干扰因素。
-4. **采用有效的学习方法**：比如使用费曼学习技巧、SQ3R阅读法（Survey, Question, Read, Recite, Review）等。
-5. **多样化学习材料**：使用不同的学习资源和材料，如视频、文章、讨论组等，以适应不同的学习风格。
-6. **主动学习**：积极参与讨论、提问和解答问题，而不是被动接受信息。
-7. **定期复习**：通过定期复习巩固记忆，利用间隔重复的技巧提高记忆效果。
-8. **保持好奇心和开放心态**：对新知识保持好奇，愿意接受不同的观点和想法。
-9. **健康的生活方式**：保证充足的睡眠、健康的饮食和适量的运动，这些都有助于提高学习效率。
-10. **自我激励**：为自己设定奖励，当达成学习目标时给予自己奖励，以增强学习的积极性。
-11. **反思和调整**：定期反思学习过程和方法，根据效果进行调整。
-12. **利用技术工具**：使用应用程序、在线课程、教育软件等工具来辅助学习。
-13. **学会速读和精读**：提高阅读速度，同时在需要深入理解的地方放慢速度。
-14. **培养专注力**：通过练习如冥想等方法提高专注力，减少分心。
-15. **理解而非记忆**：努力理解概念和原理，而不是简单地记忆事实。
-通过上述方法，你可以逐步提升学习效率，不断优化你的学习过程。</t>
-        </is>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>